--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyaichi.yoshihiko\Documents\UiPath\ReFramework-Template-Excel-Transaction-master\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyaichi.yoshihiko\Documents\UiPath\ReFramework-Template-Excel-Transaction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="10125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReFramework-Template-Excel-Transaction </t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>TransactionData</t>
@@ -172,7 +176,22 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">ReFramework-Template-Excel-Transaction </t>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ransaction Data File</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Transaction Data Sheet</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -180,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -197,6 +216,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,9 +244,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -504,7 +530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -554,7 +582,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -563,18 +591,24 @@
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1578,7 +1612,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
